--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,51 +543,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>79.94220366666666</v>
+        <v>107.970093</v>
       </c>
       <c r="H2">
-        <v>239.826611</v>
+        <v>323.910279</v>
       </c>
       <c r="I2">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="J2">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4981896666666667</v>
+        <v>0.4828723333333333</v>
       </c>
       <c r="N2">
-        <v>1.494569</v>
+        <v>1.448617</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8782126285081715</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8782126285081715</v>
       </c>
       <c r="Q2">
-        <v>39.82637979729544</v>
+        <v>52.135770737127</v>
       </c>
       <c r="R2">
-        <v>358.437418175659</v>
+        <v>469.221936634143</v>
       </c>
       <c r="S2">
-        <v>0.01421731517517826</v>
+        <v>0.01828447731595878</v>
       </c>
       <c r="T2">
-        <v>0.01421731517517826</v>
+        <v>0.01828447731595878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.28364800000001</v>
+        <v>107.970093</v>
       </c>
       <c r="H3">
-        <v>237.850944</v>
+        <v>323.910279</v>
       </c>
       <c r="I3">
-        <v>0.01410019439236322</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="J3">
-        <v>0.01410019439236322</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.4981896666666667</v>
+        <v>0.06696300000000001</v>
       </c>
       <c r="N3">
-        <v>1.494569</v>
+        <v>0.200889</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1217873714918285</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1217873714918285</v>
       </c>
       <c r="Q3">
-        <v>39.49829416923734</v>
+        <v>7.230001337559001</v>
       </c>
       <c r="R3">
-        <v>355.4846475231361</v>
+        <v>65.07001203803101</v>
       </c>
       <c r="S3">
-        <v>0.01410019439236322</v>
+        <v>0.002535625609478312</v>
       </c>
       <c r="T3">
-        <v>0.01410019439236322</v>
+        <v>0.002535625609478312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2157.091837666667</v>
+        <v>79.28364800000001</v>
       </c>
       <c r="H4">
-        <v>6471.275513000001</v>
+        <v>237.850944</v>
       </c>
       <c r="I4">
-        <v>0.3836278350017397</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="J4">
-        <v>0.3836278350017397</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4981896666666667</v>
+        <v>0.4828723333333333</v>
       </c>
       <c r="N4">
-        <v>1.494569</v>
+        <v>1.448617</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.8782126285081715</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8782126285081715</v>
       </c>
       <c r="Q4">
-        <v>1074.640863576544</v>
+        <v>38.28388010493867</v>
       </c>
       <c r="R4">
-        <v>9671.767772188898</v>
+        <v>344.554920944448</v>
       </c>
       <c r="S4">
-        <v>0.3836278350017397</v>
+        <v>0.01342649638527644</v>
       </c>
       <c r="T4">
-        <v>0.3836278350017397</v>
+        <v>0.01342649638527644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.29227233333334</v>
+        <v>79.28364800000001</v>
       </c>
       <c r="H5">
-        <v>189.876817</v>
+        <v>237.850944</v>
       </c>
       <c r="I5">
-        <v>0.0112562093943305</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="J5">
-        <v>0.0112562093943305</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4981896666666667</v>
+        <v>0.06696300000000001</v>
       </c>
       <c r="N5">
-        <v>1.494569</v>
+        <v>0.200889</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.1217873714918285</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.1217873714918285</v>
       </c>
       <c r="Q5">
-        <v>31.53155605631922</v>
+        <v>5.309070921024001</v>
       </c>
       <c r="R5">
-        <v>283.784004506873</v>
+        <v>47.781638289216</v>
       </c>
       <c r="S5">
-        <v>0.0112562093943305</v>
+        <v>0.001861938271014215</v>
       </c>
       <c r="T5">
-        <v>0.0112562093943305</v>
+        <v>0.001861938271014214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1271.140543666667</v>
+        <v>1571.454671</v>
       </c>
       <c r="H6">
-        <v>3813.421631</v>
+        <v>4714.364013</v>
       </c>
       <c r="I6">
-        <v>0.2260658940127764</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="J6">
-        <v>0.2260658940127764</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4981896666666667</v>
+        <v>0.4828723333333333</v>
       </c>
       <c r="N6">
-        <v>1.494569</v>
+        <v>1.448617</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.8782126285081715</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8782126285081715</v>
       </c>
       <c r="Q6">
-        <v>633.2690837357821</v>
+        <v>758.8119837133357</v>
       </c>
       <c r="R6">
-        <v>5699.421753622039</v>
+        <v>6829.307853420021</v>
       </c>
       <c r="S6">
-        <v>0.2260658940127764</v>
+        <v>0.2661220944299545</v>
       </c>
       <c r="T6">
-        <v>0.2260658940127764</v>
+        <v>0.2661220944299545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,427 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1571.454671</v>
+      </c>
+      <c r="H7">
+        <v>4714.364013</v>
+      </c>
+      <c r="I7">
+        <v>0.3030269501840559</v>
+      </c>
+      <c r="J7">
+        <v>0.3030269501840559</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.06696300000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.200889</v>
+      </c>
+      <c r="O7">
+        <v>0.1217873714918285</v>
+      </c>
+      <c r="P7">
+        <v>0.1217873714918285</v>
+      </c>
+      <c r="Q7">
+        <v>105.229319134173</v>
+      </c>
+      <c r="R7">
+        <v>947.0638722075571</v>
+      </c>
+      <c r="S7">
+        <v>0.03690485575410141</v>
+      </c>
+      <c r="T7">
+        <v>0.03690485575410141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1972.125732666667</v>
-      </c>
-      <c r="H7">
-        <v>5916.377198</v>
-      </c>
-      <c r="I7">
-        <v>0.350732552023612</v>
-      </c>
-      <c r="J7">
-        <v>0.350732552023612</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.4981896666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.494569</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>982.4926613819625</v>
-      </c>
-      <c r="R7">
-        <v>8842.433952437663</v>
-      </c>
-      <c r="S7">
-        <v>0.350732552023612</v>
-      </c>
-      <c r="T7">
-        <v>0.350732552023612</v>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>35.82847833333333</v>
+      </c>
+      <c r="H8">
+        <v>107.485435</v>
+      </c>
+      <c r="I8">
+        <v>0.006908881763784279</v>
+      </c>
+      <c r="J8">
+        <v>0.00690888176378428</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.4828723333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.448617</v>
+      </c>
+      <c r="O8">
+        <v>0.8782126285081715</v>
+      </c>
+      <c r="P8">
+        <v>0.8782126285081715</v>
+      </c>
+      <c r="Q8">
+        <v>17.30058093259944</v>
+      </c>
+      <c r="R8">
+        <v>155.705228393395</v>
+      </c>
+      <c r="S8">
+        <v>0.006067467213825164</v>
+      </c>
+      <c r="T8">
+        <v>0.006067467213825165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>35.82847833333333</v>
+      </c>
+      <c r="H9">
+        <v>107.485435</v>
+      </c>
+      <c r="I9">
+        <v>0.006908881763784279</v>
+      </c>
+      <c r="J9">
+        <v>0.00690888176378428</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.06696300000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.200889</v>
+      </c>
+      <c r="O9">
+        <v>0.1217873714918285</v>
+      </c>
+      <c r="P9">
+        <v>0.1217873714918285</v>
+      </c>
+      <c r="Q9">
+        <v>2.399182394635</v>
+      </c>
+      <c r="R9">
+        <v>21.592641551715</v>
+      </c>
+      <c r="S9">
+        <v>0.0008414145499591151</v>
+      </c>
+      <c r="T9">
+        <v>0.0008414145499591151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>929.2825723333332</v>
+      </c>
+      <c r="H10">
+        <v>2787.847717</v>
+      </c>
+      <c r="I10">
+        <v>0.1791955370715012</v>
+      </c>
+      <c r="J10">
+        <v>0.1791955370715012</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4828723333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.448617</v>
+      </c>
+      <c r="O10">
+        <v>0.8782126285081715</v>
+      </c>
+      <c r="P10">
+        <v>0.8782126285081715</v>
+      </c>
+      <c r="Q10">
+        <v>448.7248440285987</v>
+      </c>
+      <c r="R10">
+        <v>4038.523596257389</v>
+      </c>
+      <c r="S10">
+        <v>0.1573717836284966</v>
+      </c>
+      <c r="T10">
+        <v>0.1573717836284966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>929.2825723333332</v>
+      </c>
+      <c r="H11">
+        <v>2787.847717</v>
+      </c>
+      <c r="I11">
+        <v>0.1791955370715012</v>
+      </c>
+      <c r="J11">
+        <v>0.1791955370715012</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.06696300000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.200889</v>
+      </c>
+      <c r="O11">
+        <v>0.1217873714918285</v>
+      </c>
+      <c r="P11">
+        <v>0.1217873714918285</v>
+      </c>
+      <c r="Q11">
+        <v>62.227548891157</v>
+      </c>
+      <c r="R11">
+        <v>560.047940020413</v>
+      </c>
+      <c r="S11">
+        <v>0.02182375344300464</v>
+      </c>
+      <c r="T11">
+        <v>0.02182375344300464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2462.03833</v>
+      </c>
+      <c r="H12">
+        <v>7386.11499</v>
+      </c>
+      <c r="I12">
+        <v>0.4747600933989308</v>
+      </c>
+      <c r="J12">
+        <v>0.4747600933989309</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4828723333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.448617</v>
+      </c>
+      <c r="O12">
+        <v>0.8782126285081715</v>
+      </c>
+      <c r="P12">
+        <v>0.8782126285081715</v>
+      </c>
+      <c r="Q12">
+        <v>1188.850193163203</v>
+      </c>
+      <c r="R12">
+        <v>10699.65173846883</v>
+      </c>
+      <c r="S12">
+        <v>0.41694030953466</v>
+      </c>
+      <c r="T12">
+        <v>0.4169403095346601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2462.03833</v>
+      </c>
+      <c r="H13">
+        <v>7386.11499</v>
+      </c>
+      <c r="I13">
+        <v>0.4747600933989308</v>
+      </c>
+      <c r="J13">
+        <v>0.4747600933989309</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.06696300000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.200889</v>
+      </c>
+      <c r="O13">
+        <v>0.1217873714918285</v>
+      </c>
+      <c r="P13">
+        <v>0.1217873714918285</v>
+      </c>
+      <c r="Q13">
+        <v>164.86547269179</v>
+      </c>
+      <c r="R13">
+        <v>1483.78925422611</v>
+      </c>
+      <c r="S13">
+        <v>0.05781978386427077</v>
+      </c>
+      <c r="T13">
+        <v>0.05781978386427077</v>
       </c>
     </row>
   </sheetData>
